--- a/medicine/Mort/Cimetière_de_Bródno/Cimetière_de_Bródno.xlsx
+++ b/medicine/Mort/Cimetière_de_Bródno/Cimetière_de_Bródno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Br%C3%B3dno</t>
+          <t>Cimetière_de_Bródno</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Bródno (en polonais : Cmentarz Bródnowski) est un ancien cimetière du district de Targówek, à l’est de Varsovie, en Pologne.  Avec une superficie de 114 ha, c'est le plus grand cimetière de Varsovie.  Avec plus de 1,2 million de sépultures, c’est l’un des plus grands cimetières d’Europe.
 </t>
